--- a/madrid.xlsx
+++ b/madrid.xlsx
@@ -2019,7 +2019,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2029,33 +2029,36 @@
         <v>order</v>
       </c>
       <c r="B1" t="str">
+        <v>key</v>
+      </c>
+      <c r="C1" t="str">
         <v>name</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>shortName</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>colour</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>fontColour</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>lineyear</v>
       </c>
-      <c r="G1" t="str">
-        <v/>
-      </c>
       <c r="H1" t="str">
+        <v/>
+      </c>
+      <c r="I1" t="str">
         <v>station_from</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>station_to</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>connectionYear</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>connectionYearEnd</v>
       </c>
     </row>
@@ -2064,18 +2067,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
+        <v>linea_1</v>
+      </c>
+      <c r="C2" t="str">
         <v>Linea 1</v>
       </c>
-      <c r="C2" t="str">
-        <v>linea_1</v>
-      </c>
       <c r="D2" t="str">
+        <v>Linea 1</v>
+      </c>
+      <c r="E2" t="str">
         <v>#67c0dd</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>#ffffff</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1919</v>
       </c>
     </row>
@@ -2102,12 +2108,15 @@
         <v/>
       </c>
       <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
         <v>Sol</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <v>Gran Via</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1919</v>
       </c>
     </row>
@@ -2134,12 +2143,15 @@
         <v/>
       </c>
       <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
         <v>Gran Via</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <v>Tribunal</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1919</v>
       </c>
     </row>
@@ -2166,25 +2178,28 @@
         <v/>
       </c>
       <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
         <v>Tribunal</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <v>Bilbao</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1919</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2194,33 +2209,36 @@
         <v>order</v>
       </c>
       <c r="B1" t="str">
+        <v>key</v>
+      </c>
+      <c r="C1" t="str">
         <v>name</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>shortName</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>colour</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>fontColour</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>lineyear</v>
       </c>
-      <c r="G1" t="str">
-        <v/>
-      </c>
       <c r="H1" t="str">
+        <v/>
+      </c>
+      <c r="I1" t="str">
         <v>station_from</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>station_to</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>connectionYear</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>connectionYearEnd</v>
       </c>
     </row>
@@ -2229,18 +2247,21 @@
         <v>2</v>
       </c>
       <c r="B2" t="str">
+        <v>linea_2</v>
+      </c>
+      <c r="C2" t="str">
         <v>Linea 2</v>
       </c>
-      <c r="C2" t="str">
-        <v>linea_2</v>
-      </c>
       <c r="D2" t="str">
+        <v>Linea 2</v>
+      </c>
+      <c r="E2" t="str">
         <v>#e0292f</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>#ffffff</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1924</v>
       </c>
     </row>
@@ -2267,12 +2288,15 @@
         <v/>
       </c>
       <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
         <v>Cuatro Caminos</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <v>Canal</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1929</v>
       </c>
     </row>
@@ -2299,12 +2323,15 @@
         <v/>
       </c>
       <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
         <v>Canal</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <v>Quevedo</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1998</v>
       </c>
     </row>
@@ -2331,12 +2358,15 @@
         <v/>
       </c>
       <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
         <v>Quevedo</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <v>San Bernardo</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1925</v>
       </c>
     </row>
@@ -2363,12 +2393,15 @@
         <v/>
       </c>
       <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
         <v>San Bernardo</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <v>Noviciado</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1925</v>
       </c>
     </row>
@@ -2395,12 +2428,15 @@
         <v/>
       </c>
       <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
         <v>Noviciado</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <v>Santo Domingo</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1925</v>
       </c>
     </row>
@@ -2427,12 +2463,15 @@
         <v/>
       </c>
       <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
         <v>Santo Domingo</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <v>Ópera</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1925</v>
       </c>
     </row>
@@ -2459,12 +2498,15 @@
         <v/>
       </c>
       <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
         <v>Ópera</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <v>Sol</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1925</v>
       </c>
     </row>
@@ -2491,12 +2533,15 @@
         <v/>
       </c>
       <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
         <v>Sol</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <v>Sevilla</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1924</v>
       </c>
     </row>
@@ -2523,12 +2568,15 @@
         <v/>
       </c>
       <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
         <v>Sevilla</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <v>Banco de España</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1924</v>
       </c>
     </row>
@@ -2555,12 +2603,15 @@
         <v/>
       </c>
       <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
         <v>Banco de España</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <v>Retiro</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1924</v>
       </c>
     </row>
@@ -2587,12 +2638,15 @@
         <v/>
       </c>
       <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
         <v>Retiro</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <v>Príncipe de Vergara</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1924</v>
       </c>
     </row>
@@ -2619,12 +2673,15 @@
         <v/>
       </c>
       <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
         <v>Príncipe de Vergara</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <v>Goya</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1924</v>
       </c>
     </row>
@@ -2651,12 +2708,15 @@
         <v/>
       </c>
       <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
         <v>Goya</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <v>Manuel Becerra</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1924</v>
       </c>
     </row>
@@ -2683,12 +2743,15 @@
         <v/>
       </c>
       <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
         <v>Manuel Becerra</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <v>Ventas</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1924</v>
       </c>
     </row>
@@ -2715,12 +2778,15 @@
         <v/>
       </c>
       <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
         <v>Ventas</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <v>La Elipa</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2007</v>
       </c>
     </row>
@@ -2747,12 +2813,15 @@
         <v/>
       </c>
       <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
         <v>La Elipa</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <v>La Almudena</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2011</v>
       </c>
     </row>
@@ -2779,12 +2848,15 @@
         <v/>
       </c>
       <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
         <v>La Almudena</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <v>Alsacia</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2011</v>
       </c>
     </row>
@@ -2811,12 +2883,15 @@
         <v/>
       </c>
       <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
         <v>Alsacia</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <v>Avenida de Guadalajara</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>2011</v>
       </c>
     </row>
@@ -2843,25 +2918,28 @@
         <v/>
       </c>
       <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
         <v>Avenida de Guadalajara</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <v>Las Rosas</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2011</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L22"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2871,33 +2949,36 @@
         <v>order</v>
       </c>
       <c r="B1" t="str">
+        <v>key</v>
+      </c>
+      <c r="C1" t="str">
         <v>name</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>shortName</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>colour</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>fontColour</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>lineyear</v>
       </c>
-      <c r="G1" t="str">
-        <v/>
-      </c>
       <c r="H1" t="str">
+        <v/>
+      </c>
+      <c r="I1" t="str">
         <v>station_from</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>station_to</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>connectionYear</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>connectionYearEnd</v>
       </c>
     </row>
@@ -2906,18 +2987,21 @@
         <v>3</v>
       </c>
       <c r="B2" t="str">
+        <v>linea_3</v>
+      </c>
+      <c r="C2" t="str">
         <v>Linea 3</v>
       </c>
-      <c r="C2" t="str">
-        <v>linea_3</v>
-      </c>
       <c r="D2" t="str">
+        <v>Linea 3</v>
+      </c>
+      <c r="E2" t="str">
         <v>#fdd700</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>#005fa9</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1936</v>
       </c>
     </row>
@@ -2944,12 +3028,15 @@
         <v/>
       </c>
       <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
         <v>Moncloa</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <v>Argüelles</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1963</v>
       </c>
     </row>
@@ -2976,12 +3063,15 @@
         <v/>
       </c>
       <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
         <v>Argüelles</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <v>Ventura Rodríguez</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1941</v>
       </c>
     </row>
@@ -3008,12 +3098,15 @@
         <v/>
       </c>
       <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
         <v>Ventura Rodríguez</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <v>Plaza de España</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1941</v>
       </c>
     </row>
@@ -3040,12 +3133,15 @@
         <v/>
       </c>
       <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
         <v>Plaza de España</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <v>Callao</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1941</v>
       </c>
     </row>
@@ -3072,12 +3168,15 @@
         <v/>
       </c>
       <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
         <v>Callao</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <v>Sol</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1941</v>
       </c>
     </row>
@@ -3104,12 +3203,15 @@
         <v/>
       </c>
       <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
         <v>Sol</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <v>Lavapiés</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1936</v>
       </c>
     </row>
@@ -3136,12 +3238,15 @@
         <v/>
       </c>
       <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
         <v>Lavapiés</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <v>Embajadores</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1936</v>
       </c>
     </row>
@@ -3168,12 +3273,15 @@
         <v/>
       </c>
       <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
         <v>Embajadores</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <v>Palos de la Frontera</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1949</v>
       </c>
     </row>
@@ -3200,12 +3308,15 @@
         <v/>
       </c>
       <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
         <v>Palos de la Frontera</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <v>Delicias</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1949</v>
       </c>
     </row>
@@ -3232,12 +3343,15 @@
         <v/>
       </c>
       <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
         <v>Delicias</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <v>Legazpi</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1951</v>
       </c>
     </row>
@@ -3264,12 +3378,15 @@
         <v/>
       </c>
       <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
         <v>Legazpi</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <v>Almendrales</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2007</v>
       </c>
     </row>
@@ -3296,12 +3413,15 @@
         <v/>
       </c>
       <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
         <v>Almendrales</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <v>Hospital 12 de Octubre</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2007</v>
       </c>
     </row>
@@ -3328,12 +3448,15 @@
         <v/>
       </c>
       <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
         <v>Hospital 12 de Octubre</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <v>San Fermín-Orcasur</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2007</v>
       </c>
     </row>
@@ -3360,12 +3483,15 @@
         <v/>
       </c>
       <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
         <v>San Fermín-Orcasur</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <v>Ciudad de los Ángeles</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2007</v>
       </c>
     </row>
@@ -3392,12 +3518,15 @@
         <v/>
       </c>
       <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
         <v>Ciudad de los Ángeles</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <v>Villaverde Bajo-Cruce</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2007</v>
       </c>
     </row>
@@ -3424,12 +3553,15 @@
         <v/>
       </c>
       <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
         <v>Villaverde Bajo-Cruce</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <v>San Cristóbal</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2007</v>
       </c>
     </row>
@@ -3456,18 +3588,21 @@
         <v/>
       </c>
       <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
         <v>San Cristóbal</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <v>Villaverde Alto</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2007</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L20"/>
   </ignoredErrors>
 </worksheet>
 </file>